--- a/Symphony/2021/AUGUST/All Details/04.08.2021/MC Bank Statement August-2021.xlsx
+++ b/Symphony/2021/AUGUST/All Details/04.08.2021/MC Bank Statement August-2021.xlsx
@@ -3026,12 +3026,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="39" fillId="35" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3063,6 +3057,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="39" fillId="35" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="35" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6070,67 +6070,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="23.25">
-      <c r="A1" s="365" t="s">
+      <c r="A1" s="363" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="365"/>
-      <c r="C1" s="365"/>
-      <c r="D1" s="365"/>
-      <c r="E1" s="365"/>
-      <c r="F1" s="365"/>
-      <c r="G1" s="365"/>
-      <c r="H1" s="365"/>
-      <c r="I1" s="365"/>
-      <c r="J1" s="365"/>
-      <c r="K1" s="365"/>
-      <c r="L1" s="365"/>
-      <c r="M1" s="365"/>
-      <c r="N1" s="365"/>
-      <c r="O1" s="365"/>
-      <c r="P1" s="365"/>
-      <c r="Q1" s="365"/>
+      <c r="B1" s="363"/>
+      <c r="C1" s="363"/>
+      <c r="D1" s="363"/>
+      <c r="E1" s="363"/>
+      <c r="F1" s="363"/>
+      <c r="G1" s="363"/>
+      <c r="H1" s="363"/>
+      <c r="I1" s="363"/>
+      <c r="J1" s="363"/>
+      <c r="K1" s="363"/>
+      <c r="L1" s="363"/>
+      <c r="M1" s="363"/>
+      <c r="N1" s="363"/>
+      <c r="O1" s="363"/>
+      <c r="P1" s="363"/>
+      <c r="Q1" s="363"/>
     </row>
     <row r="2" spans="1:24" s="108" customFormat="1" ht="18">
-      <c r="A2" s="366" t="s">
+      <c r="A2" s="364" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="366"/>
-      <c r="C2" s="366"/>
-      <c r="D2" s="366"/>
-      <c r="E2" s="366"/>
-      <c r="F2" s="366"/>
-      <c r="G2" s="366"/>
-      <c r="H2" s="366"/>
-      <c r="I2" s="366"/>
-      <c r="J2" s="366"/>
-      <c r="K2" s="366"/>
-      <c r="L2" s="366"/>
-      <c r="M2" s="366"/>
-      <c r="N2" s="366"/>
-      <c r="O2" s="366"/>
-      <c r="P2" s="366"/>
-      <c r="Q2" s="366"/>
+      <c r="B2" s="364"/>
+      <c r="C2" s="364"/>
+      <c r="D2" s="364"/>
+      <c r="E2" s="364"/>
+      <c r="F2" s="364"/>
+      <c r="G2" s="364"/>
+      <c r="H2" s="364"/>
+      <c r="I2" s="364"/>
+      <c r="J2" s="364"/>
+      <c r="K2" s="364"/>
+      <c r="L2" s="364"/>
+      <c r="M2" s="364"/>
+      <c r="N2" s="364"/>
+      <c r="O2" s="364"/>
+      <c r="P2" s="364"/>
+      <c r="Q2" s="364"/>
     </row>
     <row r="3" spans="1:24" s="109" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="367" t="s">
+      <c r="A3" s="365" t="s">
         <v>191</v>
       </c>
-      <c r="B3" s="368"/>
-      <c r="C3" s="368"/>
-      <c r="D3" s="368"/>
-      <c r="E3" s="368"/>
-      <c r="F3" s="368"/>
-      <c r="G3" s="368"/>
-      <c r="H3" s="368"/>
-      <c r="I3" s="368"/>
-      <c r="J3" s="368"/>
-      <c r="K3" s="368"/>
-      <c r="L3" s="368"/>
-      <c r="M3" s="368"/>
-      <c r="N3" s="368"/>
-      <c r="O3" s="368"/>
-      <c r="P3" s="368"/>
-      <c r="Q3" s="369"/>
+      <c r="B3" s="366"/>
+      <c r="C3" s="366"/>
+      <c r="D3" s="366"/>
+      <c r="E3" s="366"/>
+      <c r="F3" s="366"/>
+      <c r="G3" s="366"/>
+      <c r="H3" s="366"/>
+      <c r="I3" s="366"/>
+      <c r="J3" s="366"/>
+      <c r="K3" s="366"/>
+      <c r="L3" s="366"/>
+      <c r="M3" s="366"/>
+      <c r="N3" s="366"/>
+      <c r="O3" s="366"/>
+      <c r="P3" s="366"/>
+      <c r="Q3" s="367"/>
       <c r="S3" s="91"/>
       <c r="T3" s="8"/>
       <c r="U3" s="8"/>
@@ -6139,49 +6139,49 @@
       <c r="X3" s="28"/>
     </row>
     <row r="4" spans="1:24" s="110" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A4" s="370" t="s">
+      <c r="A4" s="368" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="372" t="s">
+      <c r="B4" s="370" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="361" t="s">
+      <c r="C4" s="372" t="s">
         <v>50</v>
       </c>
-      <c r="D4" s="361" t="s">
+      <c r="D4" s="372" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="361" t="s">
+      <c r="E4" s="372" t="s">
         <v>52</v>
       </c>
-      <c r="F4" s="361" t="s">
+      <c r="F4" s="372" t="s">
         <v>195</v>
       </c>
-      <c r="G4" s="361" t="s">
+      <c r="G4" s="372" t="s">
         <v>53</v>
       </c>
-      <c r="H4" s="361" t="s">
+      <c r="H4" s="372" t="s">
         <v>184</v>
       </c>
-      <c r="I4" s="361" t="s">
+      <c r="I4" s="372" t="s">
         <v>187</v>
       </c>
-      <c r="J4" s="361" t="s">
+      <c r="J4" s="372" t="s">
         <v>54</v>
       </c>
-      <c r="K4" s="361" t="s">
+      <c r="K4" s="372" t="s">
         <v>55</v>
       </c>
-      <c r="L4" s="361" t="s">
+      <c r="L4" s="372" t="s">
         <v>56</v>
       </c>
-      <c r="M4" s="361" t="s">
+      <c r="M4" s="372" t="s">
         <v>57</v>
       </c>
-      <c r="N4" s="361" t="s">
+      <c r="N4" s="372" t="s">
         <v>58</v>
       </c>
-      <c r="O4" s="363" t="s">
+      <c r="O4" s="361" t="s">
         <v>59</v>
       </c>
       <c r="P4" s="374" t="s">
@@ -6197,21 +6197,21 @@
       <c r="W4" s="112"/>
     </row>
     <row r="5" spans="1:24" s="110" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="371"/>
-      <c r="B5" s="373"/>
-      <c r="C5" s="362"/>
-      <c r="D5" s="362"/>
-      <c r="E5" s="362"/>
-      <c r="F5" s="362"/>
-      <c r="G5" s="362"/>
-      <c r="H5" s="362"/>
-      <c r="I5" s="362"/>
-      <c r="J5" s="362"/>
-      <c r="K5" s="362"/>
-      <c r="L5" s="362"/>
-      <c r="M5" s="362"/>
-      <c r="N5" s="362"/>
-      <c r="O5" s="364"/>
+      <c r="A5" s="369"/>
+      <c r="B5" s="371"/>
+      <c r="C5" s="373"/>
+      <c r="D5" s="373"/>
+      <c r="E5" s="373"/>
+      <c r="F5" s="373"/>
+      <c r="G5" s="373"/>
+      <c r="H5" s="373"/>
+      <c r="I5" s="373"/>
+      <c r="J5" s="373"/>
+      <c r="K5" s="373"/>
+      <c r="L5" s="373"/>
+      <c r="M5" s="373"/>
+      <c r="N5" s="373"/>
+      <c r="O5" s="362"/>
       <c r="P5" s="375"/>
       <c r="Q5" s="182" t="s">
         <v>60</v>
@@ -9157,8 +9157,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
     <mergeCell ref="L4:L5"/>
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
@@ -9176,6 +9174,8 @@
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
@@ -9188,8 +9188,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CS1357"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView topLeftCell="A109" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D121" sqref="D121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -9968,14 +9968,14 @@
         <v>524225</v>
       </c>
       <c r="C8" s="90">
-        <v>398645</v>
+        <v>428645</v>
       </c>
       <c r="D8" s="90">
         <v>2340</v>
       </c>
       <c r="E8" s="90">
         <f t="shared" si="0"/>
-        <v>400985</v>
+        <v>430985</v>
       </c>
       <c r="F8" s="332"/>
       <c r="G8" s="338"/>
@@ -12528,7 +12528,7 @@
       </c>
       <c r="C33" s="252">
         <f>SUM(C5:C32)</f>
-        <v>2058911</v>
+        <v>2088911</v>
       </c>
       <c r="D33" s="252">
         <f>SUM(D5:D32)</f>
@@ -12536,11 +12536,11 @@
       </c>
       <c r="E33" s="252">
         <f>SUM(E5:E32)</f>
-        <v>2067456</v>
+        <v>2097456</v>
       </c>
       <c r="F33" s="337">
         <f>B33-E33</f>
-        <v>-9386</v>
+        <v>-39386</v>
       </c>
       <c r="G33" s="342"/>
       <c r="H33" s="195"/>
@@ -13910,7 +13910,7 @@
         <v>1718911905</v>
       </c>
       <c r="D46" s="277">
-        <v>446556</v>
+        <v>416556</v>
       </c>
       <c r="E46" s="244" t="s">
         <v>205</v>
@@ -22087,7 +22087,7 @@
       <c r="C119" s="389"/>
       <c r="D119" s="281">
         <f>SUM(D37:D118)</f>
-        <v>2045628</v>
+        <v>2015628</v>
       </c>
       <c r="E119" s="273"/>
       <c r="F119" s="194"/>
@@ -22294,7 +22294,7 @@
       <c r="C121" s="377"/>
       <c r="D121" s="281">
         <f>D119+M121</f>
-        <v>2045628</v>
+        <v>2015628</v>
       </c>
       <c r="E121" s="273"/>
       <c r="F121" s="194"/>
@@ -32312,7 +32312,7 @@
   <dimension ref="A1:AC223"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -32505,7 +32505,7 @@
         <v>85</v>
       </c>
       <c r="E7" s="155">
-        <v>842623.79999999981</v>
+        <v>872623.79999999981</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="351"/>
@@ -32579,7 +32579,7 @@
         <v>13</v>
       </c>
       <c r="E9" s="65">
-        <v>2045628</v>
+        <v>2015628</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="352"/>
